--- a/Documentacion/7mo Trimestre/formato_proveedores.xlsx
+++ b/Documentacion/7mo Trimestre/formato_proveedores.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\documentacion_kronnos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Kronnos_V2\Documentacion\7mo Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9DAC7F3-BCBE-44B9-B171-B5D4EAEAD1D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE31642-57E8-4274-B026-3078C443CC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E9DFDA1F-9646-4E0C-8B2A-1374EB4A2EA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E9DFDA1F-9646-4E0C-8B2A-1374EB4A2EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -137,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -395,63 +399,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,407 +795,409 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3967DD7-DECD-4915-901B-B6AE622EC07D}">
   <dimension ref="B4:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="7">
         <v>1750000</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="8">
         <v>1624550</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="9">
         <v>1764320</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="23"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="23"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="24"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="20">
         <v>78900</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="7">
         <v>85400</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="9">
         <v>80150</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="23"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="23"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="24"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="7">
         <v>1750000</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="8">
         <v>1624550</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="9">
         <v>1764320</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="23"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="23"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="24"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="20">
         <v>1249900</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="7">
         <v>1259900</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="9">
         <v>1299900</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="23"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="23"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="24"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="20">
         <v>1249900</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="7">
         <v>1259900</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="9">
         <v>1299900</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="23"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="23"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="23"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="23"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="23"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="24"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="20">
         <v>70000</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="7">
         <v>85600</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="9">
         <v>77900</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="23"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="24"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="25">
         <f>SUM(D34+D26+D19+D15+D10+D6)</f>
         <v>6148700</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="26">
         <f>SUM(E34+E26+E19+E15+E10+E6)</f>
         <v>5939900</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="26">
         <f>SUM(F34+F26+F19+F15+F10+F6)</f>
         <v>6286490</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="F19:F25"/>
     <mergeCell ref="D26:D32"/>
     <mergeCell ref="E26:E32"/>
     <mergeCell ref="F26:F32"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="F34:F36"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="F19:F25"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentacion/7mo Trimestre/formato_proveedores.xlsx
+++ b/Documentacion/7mo Trimestre/formato_proveedores.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Kronnos_V2\Documentacion\7mo Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\documentacion_kronnos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE31642-57E8-4274-B026-3078C443CC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9DAC7F3-BCBE-44B9-B171-B5D4EAEAD1D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E9DFDA1F-9646-4E0C-8B2A-1374EB4A2EA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E9DFDA1F-9646-4E0C-8B2A-1374EB4A2EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,11 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -141,7 +137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -399,86 +395,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,409 +768,407 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3967DD7-DECD-4915-901B-B6AE622EC07D}">
   <dimension ref="B4:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F14"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="15">
         <v>1750000</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="19">
         <v>1624550</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="22">
         <v>1764320</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="12">
         <v>78900</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="15">
         <v>85400</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="22">
         <v>80150</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="15">
         <v>1750000</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="19">
         <v>1624550</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="22">
         <v>1764320</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="12">
         <v>1249900</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="15">
         <v>1259900</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="22">
         <v>1299900</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="19"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="12">
         <v>1249900</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="15">
         <v>1259900</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="22">
         <v>1299900</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="22"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="12">
         <v>70000</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="15">
         <v>85600</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="22">
         <v>77900</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="14"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="15"/>
-      <c r="C36" s="16" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="22"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="24"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="11">
         <f>SUM(D34+D26+D19+D15+D10+D6)</f>
         <v>6148700</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="25">
         <f>SUM(E34+E26+E19+E15+E10+E6)</f>
         <v>5939900</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="25">
         <f>SUM(F34+F26+F19+F15+F10+F6)</f>
         <v>6286490</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="F19:F25"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="E10:E14"/>
     <mergeCell ref="F10:F14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="F19:F25"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
